--- a/results/resumenResultados.xlsx
+++ b/results/resumenResultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="orinaFlav" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>sexoF</t>
   </si>
@@ -74,6 +74,69 @@
   </si>
   <si>
     <t>anova 2/3 vias</t>
+  </si>
+  <si>
+    <t>Distribución muy dispersa</t>
+  </si>
+  <si>
+    <t>Distribución concentrada</t>
+  </si>
+  <si>
+    <t>Distribución menos concentrada</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Muy disperso</t>
+  </si>
+  <si>
+    <t>Disperso</t>
+  </si>
+  <si>
+    <t>Muy disperso, alta variabilidad y alta media ES y NS, Sexo/end equilibrado</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>ES, NG</t>
+  </si>
+  <si>
+    <t>Delta.Frec, Delta.Grasa</t>
+  </si>
+  <si>
+    <t>Concentrado, poca variabilidad, equilibrado en factores</t>
+  </si>
+  <si>
+    <t>Concentrado, valor medio bajo de ES, de HE.G, de NG y NS, antro normal, Casi todo hombres</t>
+  </si>
+  <si>
+    <t>Sexo H, ES, HE.G, NG, NS</t>
+  </si>
+  <si>
+    <t>Disperso, valor muy alto y distinto de HE.G, parecido NG,  + Sa, casi todo mujeres</t>
+  </si>
+  <si>
+    <t>Sexo M, HE.G, NG, SA</t>
+  </si>
+  <si>
+    <t>Muy disperso niveles bajos de EG, HE.G, NG, baja media de peso, baja media de grasa, baja medai delta.IRCV, baja media Bpmx, casi todo hombre, + ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexo H, EG, HE.G, NG, peso, grasa IRCV, BPMAX, ST, </t>
+  </si>
+  <si>
+    <t>Concentrado y definido</t>
+  </si>
+  <si>
+    <t>Definido algo disperso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrado y definido, poca variabilidad, mayoría ST/SU, </t>
   </si>
 </sst>
 </file>
@@ -109,11 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,16 +458,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
@@ -455,46 +519,119 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -504,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,28 +697,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,9 +763,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/resumenResultados.xlsx
+++ b/results/resumenResultados.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="orinaFlav" sheetId="1" r:id="rId1"/>
     <sheet name="orinaAnt" sheetId="2" r:id="rId2"/>
-    <sheet name="plasmaFlav" sheetId="3" r:id="rId3"/>
+    <sheet name="plasmaAnt" sheetId="4" r:id="rId3"/>
+    <sheet name="plasmaFlav" sheetId="3" r:id="rId4"/>
+    <sheet name="plasmaFlavADJ" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,32 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
-  <si>
-    <t>sexoF</t>
-  </si>
-  <si>
-    <t>sexoM</t>
-  </si>
-  <si>
-    <t>tiempo 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>tiempo F</t>
   </si>
   <si>
-    <t>edulcoranteSA</t>
-  </si>
-  <si>
-    <t>edulcoranteSU</t>
-  </si>
-  <si>
-    <t>edulcoranteST</t>
-  </si>
-  <si>
-    <t>contribucionPCA</t>
-  </si>
-  <si>
     <t>orina flavonoides</t>
   </si>
   <si>
@@ -76,75 +57,32 @@
     <t>anova 2/3 vias</t>
   </si>
   <si>
-    <t>Distribución muy dispersa</t>
-  </si>
-  <si>
-    <t>Distribución concentrada</t>
-  </si>
-  <si>
-    <t>Distribución menos concentrada</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>Muy disperso</t>
-  </si>
-  <si>
-    <t>Disperso</t>
-  </si>
-  <si>
-    <t>Muy disperso, alta variabilidad y alta media ES y NS, Sexo/end equilibrado</t>
-  </si>
-  <si>
     <t>Comentario</t>
   </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>ES, NG</t>
-  </si>
-  <si>
-    <t>Delta.Frec, Delta.Grasa</t>
-  </si>
-  <si>
-    <t>Concentrado, poca variabilidad, equilibrado en factores</t>
-  </si>
-  <si>
-    <t>Concentrado, valor medio bajo de ES, de HE.G, de NG y NS, antro normal, Casi todo hombres</t>
-  </si>
-  <si>
-    <t>Sexo H, ES, HE.G, NG, NS</t>
-  </si>
-  <si>
-    <t>Disperso, valor muy alto y distinto de HE.G, parecido NG,  + Sa, casi todo mujeres</t>
-  </si>
-  <si>
-    <t>Sexo M, HE.G, NG, SA</t>
-  </si>
-  <si>
-    <t>Muy disperso niveles bajos de EG, HE.G, NG, baja media de peso, baja media de grasa, baja medai delta.IRCV, baja media Bpmx, casi todo hombre, + ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexo H, EG, HE.G, NG, peso, grasa IRCV, BPMAX, ST, </t>
-  </si>
-  <si>
-    <t>Concentrado y definido</t>
-  </si>
-  <si>
-    <t>Definido algo disperso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentrado y definido, poca variabilidad, mayoría ST/SU, </t>
+    <t>plasma Antocianos</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,12 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,177 +411,105 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,124 +517,73 @@
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -775,10 +591,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,86 +679,164 @@
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/resumenResultados.xlsx
+++ b/results/resumenResultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="orinaFlav" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="plasmaAnt" sheetId="3" r:id="rId3"/>
     <sheet name="plasmaFlav" sheetId="4" r:id="rId4"/>
     <sheet name="plasmaFlavADJ" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="151">
   <si>
     <t>orina flavonoides</t>
   </si>
@@ -469,6 +470,18 @@
   </si>
   <si>
     <t>Prácticamente ninguna influencia detectada en los factores en el tiempo, la distribución respecto al endulzante de DHPAA habrá que analizarla individualmente. Se puede intuir una influencia del sexo en TFA.Sulfate y ác. Vanílico, pero no es significativa</t>
+  </si>
+  <si>
+    <t>orinaFlav</t>
+  </si>
+  <si>
+    <t>orinaAnt</t>
+  </si>
+  <si>
+    <t>clustersResumen</t>
+  </si>
+  <si>
+    <t>plasmaAnt</t>
   </si>
 </sst>
 </file>
@@ -974,18 +987,6 @@
   </cellStyleXfs>
   <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1087,6 +1088,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Title" xfId="1"/>
@@ -1684,7 +1697,7 @@
   <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A11" sqref="A11:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,53 +1706,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
       <c r="AG2" t="s">
         <v>3</v>
       </c>
@@ -1751,94 +1764,94 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AD3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AG3" t="s">
@@ -1852,310 +1865,310 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="12"/>
-    </row>
-    <row r="5" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="11"/>
+      <c r="V5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15" t="s">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AE5" s="17" t="s">
+      <c r="AE5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="19" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20" t="s">
+      <c r="U6" s="16"/>
+      <c r="V6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AB6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20" t="s">
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AE6" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+    <row r="7" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="24" t="s">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="25" t="s">
+      <c r="Y7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25" t="s">
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+    <row r="8" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="s">
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29" t="s">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="30" t="s">
+      <c r="U8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="30" t="s">
+      <c r="V8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="30" t="s">
+      <c r="W8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="30" t="s">
+      <c r="X8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="30" t="s">
+      <c r="Y8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30" t="s">
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AE8" s="28" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2165,40 +2178,40 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O11" t="s">
@@ -2209,37 +2222,37 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="103" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="103" t="s">
+      <c r="F12" s="74"/>
+      <c r="G12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="17" t="s">
+      <c r="L12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2247,33 +2260,33 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="72" t="s">
+      <c r="K13" s="66"/>
+      <c r="L13" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="82"/>
-      <c r="O13" s="22" t="s">
+      <c r="M13" s="78"/>
+      <c r="O13" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2281,19 +2294,19 @@
       <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="86"/>
-      <c r="O14" s="27" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="82"/>
+      <c r="O14" s="23" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2301,27 +2314,27 @@
       <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="99"/>
-      <c r="O15" s="32" t="s">
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="95"/>
+      <c r="O15" s="28" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2329,59 +2342,59 @@
       <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="82"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="72" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="82"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="78"/>
       <c r="O17" t="s">
         <v>20</v>
       </c>
@@ -2390,22 +2403,22 @@
       <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="104" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85" t="s">
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="86"/>
+      <c r="M18" s="82"/>
       <c r="O18" t="s">
         <v>139</v>
       </c>
@@ -2425,7 +2438,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C20">
@@ -2433,16 +2446,16 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C21">
         <v>0.05</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C22">
@@ -2450,7 +2463,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C23">
@@ -2472,52 +2485,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
       <c r="AG2" t="s">
         <v>3</v>
       </c>
@@ -2529,94 +2542,94 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AD3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AG3" t="s">
@@ -2630,363 +2643,363 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="12"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="S5" s="11"/>
+      <c r="T5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15" t="s">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AD5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AE5" s="17" t="s">
+      <c r="AE5" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="19" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20" t="s">
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20" t="s">
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AE6" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="24" t="s">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25" t="s">
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25" t="s">
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="23" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="26"/>
+      <c r="O8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29" t="s">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30" t="s">
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30" t="s">
+      <c r="W8" s="26"/>
+      <c r="X8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="30" t="s">
+      <c r="Y8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="30" t="s">
+      <c r="Z8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="30" t="s">
+      <c r="AA8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30" t="s">
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="AD8" s="30" t="s">
+      <c r="AD8" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AE8" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="67"/>
+    <row r="9" spans="1:34" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="63"/>
     </row>
     <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2994,40 +3007,40 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O11" t="s">
@@ -3035,191 +3048,191 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="17" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="92" t="s">
+      <c r="G13" s="84"/>
+      <c r="H13" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="90"/>
-      <c r="O13" s="22" t="s">
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="86"/>
+      <c r="O13" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="86"/>
-      <c r="O14" s="27" t="s">
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="82"/>
+      <c r="O14" s="23" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97" t="s">
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="96" t="s">
+      <c r="J15" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="96" t="s">
+      <c r="L15" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="O15" s="32" t="s">
+      <c r="M15" s="95"/>
+      <c r="O15" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="72" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="71" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="82"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="74" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="82"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="78"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="86"/>
+      <c r="M18" s="82"/>
       <c r="O18" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3246,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C20">
@@ -3247,7 +3260,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C21">
@@ -3255,7 +3268,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C22">
@@ -3263,7 +3276,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C23">
@@ -3286,52 +3299,52 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="G17" sqref="A10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
       <c r="AH2" t="s">
         <v>3</v>
       </c>
@@ -3343,97 +3356,97 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="Y3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="40" t="s">
+      <c r="AA3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="40" t="s">
+      <c r="AB3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AC3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="40" t="s">
+      <c r="AD3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="40" t="s">
+      <c r="AE3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="AH3" t="s">
@@ -3447,243 +3460,243 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="44"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="40"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="45" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15" t="s">
+      <c r="R5" s="11"/>
+      <c r="S5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15" t="s">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="17" t="s">
+      <c r="AF5" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="46" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="47" t="s">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AF6" s="22" t="s">
+      <c r="AF6" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="P7" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="Q7" s="48" t="s">
+      <c r="Q7" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="49" t="s">
+      <c r="T7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="49" t="s">
+      <c r="U7" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="V7" s="49" t="s">
+      <c r="V7" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49" t="s">
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="49" t="s">
+      <c r="Z7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49" t="s">
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49" t="s">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AF7" s="51" t="s">
+      <c r="AF7" s="47" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3696,46 +3709,46 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3743,34 +3756,34 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="18" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3778,30 +3791,30 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="E12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="36" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="P12" s="51" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="P12" s="47" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3809,83 +3822,83 @@
       <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="35" t="s">
+      <c r="D14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="36" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="30"/>
+      <c r="M14" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="36" t="s">
+      <c r="D15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="33" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="29" t="s">
         <v>57</v>
       </c>
       <c r="P15" t="s">
@@ -3896,33 +3909,33 @@
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="33" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="36" t="s">
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="32" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3930,26 +3943,26 @@
       <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="33" t="s">
+      <c r="K17" s="30"/>
+      <c r="L17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C19">
@@ -3957,7 +3970,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C20">
@@ -3965,7 +3978,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C21">
@@ -3973,7 +3986,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C22">
@@ -4002,98 +4015,98 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="1" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4101,61 +4114,61 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="17"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="13"/>
       <c r="V5" t="s">
         <v>3</v>
       </c>
@@ -4164,35 +4177,35 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="15" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20" t="s">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="22"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="18"/>
       <c r="V6" t="s">
         <v>21</v>
       </c>
@@ -4201,70 +4214,70 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="20" t="s">
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="27"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="23"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="20" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="32"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4275,23 +4288,23 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="37" t="s">
+      <c r="B15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="33" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4299,94 +4312,94 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="33" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C23">
@@ -4394,7 +4407,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C24">
@@ -4402,7 +4415,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C25">
@@ -4410,7 +4423,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C26">
@@ -4418,53 +4431,53 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4482,45 +4495,45 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
       <c r="AA2" t="s">
         <v>3</v>
       </c>
@@ -4532,76 +4545,76 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="Q3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="53" t="s">
+      <c r="Y3" s="49" t="s">
         <v>20</v>
       </c>
       <c r="AA3" t="s">
@@ -4615,173 +4628,173 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="44"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="14" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="15" t="s">
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="19" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="22" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="48" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="51" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="47" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4794,25 +4807,25 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="35" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="33" t="s">
         <v>60</v>
       </c>
       <c r="L10" t="s">
@@ -4823,89 +4836,89 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="G13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="31" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4913,20 +4926,20 @@
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C18">
@@ -4934,7 +4947,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C19">
@@ -4942,7 +4955,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C20">
@@ -4950,7 +4963,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C21">
@@ -4966,4 +4979,420 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="74"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="77"/>
+      <c r="P6" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="66"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="79"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="91"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="77"/>
+      <c r="P9" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="77"/>
+      <c r="P10" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="71"/>
+      <c r="P14" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="83"/>
+      <c r="P15" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="77"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N19" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="77"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="79"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="S29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/resumenResultados.xlsx
+++ b/results/resumenResultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7530" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="orinaFlav" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="plasmaAnt" sheetId="3" r:id="rId3"/>
     <sheet name="plasmaFlav" sheetId="4" r:id="rId4"/>
     <sheet name="plasmaFlavADJ" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
+    <sheet name="resumenes" sheetId="6" r:id="rId6"/>
+    <sheet name="todoJunto" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="151">
   <si>
     <t>orina flavonoides</t>
   </si>
@@ -631,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -980,12 +981,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1100,6 +1123,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Title" xfId="1"/>
@@ -4009,7 +4041,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,7 +4527,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C21" sqref="B18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,9 +5017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5395,4 +5425,244 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="K4" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="114"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/resumenResultados.xlsx
+++ b/results/resumenResultados.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
   <si>
     <t xml:space="preserve">clustersResumen</t>
   </si>
@@ -168,14 +168,18 @@
   </si>
   <si>
     <t xml:space="preserve">Frec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">análisis corregido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -460,8 +464,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,6 +678,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,914 +762,927 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7" t="s">
+      <c r="O5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="6"/>
+      <c r="R5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="20" t="s">
+      <c r="O9" s="11"/>
+      <c r="P9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="11" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N11" s="0" t="s">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27" t="s">
+      <c r="O15" s="25"/>
+      <c r="P15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="30" t="s">
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="20" t="s">
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="0" t="s">
+      <c r="N24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="T25" s="32" t="s">
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="T27" s="36" t="s">
+      <c r="O27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N28" s="0" t="s">
+      <c r="N28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R28" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N29" s="0" t="s">
+      <c r="N29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="T29" s="37" t="s">
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N30" s="0" t="s">
+      <c r="N30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38" t="s">
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38" t="s">
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="36" t="s">
+      <c r="D36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="O36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P36" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="33" t="s">
+      <c r="N36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="36" t="s">
+      <c r="F37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="36" t="s">
+      <c r="K37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O37" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="P38" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="37" t="s">
+      <c r="L38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="37" t="s">
+      <c r="O39" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="41" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="36" t="s">
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="32" t="s">
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="45" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="48"/>
+      <c r="B45" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="49"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="52"/>
-    </row>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="53"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q51" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="36" t="s">
+      <c r="F52" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="J52" s="54" t="n">
+        <v>3.8E-008</v>
+      </c>
+      <c r="L52" s="54" t="n">
+        <v>7.78E-009</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>0.000746</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1.4E-005</v>
+      </c>
+      <c r="P52" s="54" t="n">
+        <v>4.18E-011</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J53" s="54" t="n">
+        <v>0.000972</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.000626</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="P54" s="54" t="n">
+        <v>9.06E-008</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="E59" s="54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="54" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E60" s="54" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K60" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N50" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="O50" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P50" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q50" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="O51" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="s">
+      <c r="L60" s="1" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="P52" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q52" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="s">
+      <c r="B61" s="54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="D61" s="54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M61" s="49"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O53" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="48"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="52"/>
+      <c r="D62" s="54" t="n">
+        <v>0.025</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="L50:Q50"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1677,267 +1702,267 @@
   <dimension ref="A3:Q16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.3"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="K3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="36" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="B6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="52"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="36" t="s">
+      <c r="D13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="33" t="s">
+      <c r="N13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="36" t="s">
+      <c r="F14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="36" t="s">
+      <c r="K14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="37" t="s">
+      <c r="L15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="38" t="s">
         <v>10</v>
       </c>
     </row>

--- a/results/resumenResultados.xlsx
+++ b/results/resumenResultados.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="resumenes" sheetId="1" r:id="rId1"/>
-    <sheet name="todoJunto" sheetId="2" r:id="rId2"/>
+    <sheet name="onlyMet" sheetId="3" r:id="rId2"/>
+    <sheet name="todoJunto" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="67">
   <si>
     <t>clustersResumen</t>
   </si>
@@ -175,6 +176,57 @@
   </si>
   <si>
     <t>análisis corregido</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>muy alto, desciende, pero sigue siendo el máximo</t>
+  </si>
+  <si>
+    <t>alto y aumenta hasta ser el mayor</t>
+  </si>
+  <si>
+    <t>bajo, desciende un poco</t>
+  </si>
+  <si>
+    <t>bajo, aumenta mucho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aumenta un poco </t>
+  </si>
+  <si>
+    <t>aumenta un poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aumenta mucho </t>
+  </si>
+  <si>
+    <t>se mantiene</t>
+  </si>
+  <si>
+    <t>resumen</t>
+  </si>
+  <si>
+    <t>M/H</t>
+  </si>
+  <si>
+    <t>7--4</t>
+  </si>
+  <si>
+    <t>5--3--3</t>
+  </si>
+  <si>
+    <t>SA/ST/SU</t>
+  </si>
+  <si>
+    <t>desciende un poco</t>
+  </si>
+  <si>
+    <t>desciende bastamte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluster pequeño con </t>
   </si>
 </sst>
 </file>
@@ -206,7 +258,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +319,48 @@
         <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -543,11 +637,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -601,6 +692,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,6 +777,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -951,671 +1057,671 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9" t="s">
+      <c r="O5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="8"/>
+      <c r="R5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="14"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="20"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="O9" s="11"/>
+      <c r="P9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="13" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29" t="s">
+      <c r="O15" s="25"/>
+      <c r="P15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="32" t="s">
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="22" t="s">
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N20" s="23" t="s">
+      <c r="N20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T25" s="34" t="s">
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T27" s="38" t="s">
+      <c r="O27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R28" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T29" s="39" t="s">
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="38" t="s">
+      <c r="D36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P36" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="35" t="s">
+      <c r="N36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="38" t="s">
+      <c r="F37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="38" t="s">
+      <c r="K37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O37" s="34" t="s">
+      <c r="O37" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P38" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="39" t="s">
+      <c r="L38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="39" t="s">
+      <c r="O39" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="38" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="34" t="s">
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="46" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="45" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="49"/>
+      <c r="B45" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="48"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="53"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1623,81 +1729,81 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1" t="s">
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P51" s="5" t="s">
+      <c r="P51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q51" s="5" t="s">
+      <c r="Q51" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>18</v>
       </c>
       <c r="F52">
@@ -1706,10 +1812,10 @@
       <c r="I52">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J52" s="54">
+      <c r="J52" s="53">
         <v>3.8000000000000003E-8</v>
       </c>
-      <c r="L52" s="54">
+      <c r="L52" s="53">
         <v>7.7799999999999992E-9</v>
       </c>
       <c r="M52">
@@ -1721,7 +1827,7 @@
       <c r="O52">
         <v>1.4E-5</v>
       </c>
-      <c r="P52" s="54">
+      <c r="P52" s="53">
         <v>4.18E-11</v>
       </c>
       <c r="Q52">
@@ -1729,7 +1835,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H53">
@@ -1738,7 +1844,7 @@
       <c r="I53">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="53">
         <v>9.7199999999999999E-4</v>
       </c>
       <c r="M53">
@@ -1752,108 +1858,108 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="22" t="s">
         <v>20</v>
       </c>
       <c r="O54">
         <v>2E-3</v>
       </c>
-      <c r="P54" s="54">
+      <c r="P54" s="53">
         <v>9.0600000000000004E-8</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K58" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="2">
+      <c r="K58" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="54"/>
-      <c r="E59" s="54">
+      <c r="B59" s="53"/>
+      <c r="E59" s="53">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K59" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L59" s="2">
+      <c r="K59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="54">
+      <c r="D60" s="53">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E60" s="54">
+      <c r="E60" s="53">
         <v>1.9E-2</v>
       </c>
-      <c r="K60" s="38" t="s">
+      <c r="K60" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="54">
+      <c r="B61" s="53">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C61">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D61" s="54">
+      <c r="D61" s="53">
         <v>1E-3</v>
       </c>
-      <c r="K61" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="2">
+      <c r="K61" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="1">
         <v>1E-3</v>
       </c>
-      <c r="M61" s="49"/>
+      <c r="M61" s="48"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="54">
+      <c r="D62" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1873,270 +1979,496 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>3</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
+        <v>4</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>6</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>7</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="K3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="38" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="B6" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1">
         <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="53"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="38" t="s">
+      <c r="D13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="35" t="s">
+      <c r="N13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="38" t="s">
+      <c r="F14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="38" t="s">
+      <c r="K14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="39" t="s">
+      <c r="L15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="38" t="s">
         <v>10</v>
       </c>
     </row>

--- a/results/resumenResultados.xlsx
+++ b/results/resumenResultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="resumenes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="68">
   <si>
     <t>clustersResumen</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">cluster pequeño con </t>
+  </si>
+  <si>
+    <t>análisis corregido sin outliers</t>
   </si>
 </sst>
 </file>
@@ -692,9 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -704,6 +704,9 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,28 +1470,28 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54" t="s">
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
@@ -1729,28 +1732,28 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54" t="s">
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54" t="s">
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
@@ -1963,8 +1966,252 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I68">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J68" s="53">
+        <v>3.8000000000000003E-8</v>
+      </c>
+      <c r="L68" s="53">
+        <v>7.7799999999999992E-9</v>
+      </c>
+      <c r="M68">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N68">
+        <v>7.4600000000000003E-4</v>
+      </c>
+      <c r="O68">
+        <v>1.4E-5</v>
+      </c>
+      <c r="P68" s="53">
+        <v>4.18E-11</v>
+      </c>
+      <c r="Q68">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I69">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J69" s="53">
+        <v>9.7199999999999999E-4</v>
+      </c>
+      <c r="M69">
+        <v>0.04</v>
+      </c>
+      <c r="N69">
+        <v>6.2600000000000004E-4</v>
+      </c>
+      <c r="O69">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70">
+        <v>2E-3</v>
+      </c>
+      <c r="P70" s="53">
+        <v>9.0600000000000004E-8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="53"/>
+      <c r="E75" s="53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K75" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="53">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E76" s="53">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K76" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C77">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D77" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="K77" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M77" s="48"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="L66:Q66"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:Q34"/>
@@ -1981,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2032,170 +2279,170 @@
       <c r="M2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+      <c r="A3" s="54">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="62" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="54" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="57">
         <v>3</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
+      <c r="A6" s="56">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
+      <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>6</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <v>7</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
